--- a/ゲーム得点案.xlsx
+++ b/ゲーム得点案.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\PuzzleGame\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\PuzzleGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{321DAED9-A553-408F-A575-6D619F53F62D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F322705-1269-4014-9358-03CF429E1E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="345" windowWidth="26115" windowHeight="14385" xr2:uid="{C8AF4F4A-E194-4262-85A8-6C589248CD91}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C8AF4F4A-E194-4262-85A8-6C589248CD91}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>ラウンド</t>
     <phoneticPr fontId="1"/>
@@ -152,6 +152,124 @@
     <rPh sb="5" eb="6">
       <t>ゲン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>わかりやすくするほうが良き</t>
+    <rPh sb="11" eb="12">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>点数システムを一新</t>
+    <rPh sb="0" eb="2">
+      <t>テンスウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イッシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改善案</t>
+    <rPh sb="0" eb="3">
+      <t>カイゼンアン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2コンボ以上でベース点数が上がっていく</t>
+    <rPh sb="4" eb="6">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>テンスウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→1コンボを繰り返してもしょうがない</t>
+    <rPh sb="6" eb="7">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基本点数</t>
+    <rPh sb="0" eb="4">
+      <t>キホンテンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンボ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同時けし</t>
+    <rPh sb="0" eb="2">
+      <t>ドウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スコアが限界突破？</t>
+    <rPh sb="4" eb="8">
+      <t>ゲンカイトッパ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ターン決めちゃう？</t>
+    <rPh sb="3" eb="4">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>500Tまで</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2^60</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>unsigned long</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>で管理</t>
+    <rPh sb="1" eb="3">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かけたす</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>たすかけ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かけ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>たす</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -516,13 +634,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EE42365-CF80-4B5F-BE48-9D10392B5E03}">
-  <dimension ref="A1:CW38"/>
+  <dimension ref="A1:CW73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="T13" sqref="T13:T38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="15" max="15" width="13.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:101" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
@@ -1530,36 +1651,223 @@
         <v>9</v>
       </c>
     </row>
+    <row r="12" spans="1:101" x14ac:dyDescent="0.4">
+      <c r="R12" t="s">
+        <v>32</v>
+      </c>
+      <c r="S12" t="s">
+        <v>34</v>
+      </c>
+      <c r="T12" t="s">
+        <v>35</v>
+      </c>
+      <c r="V12" t="s">
+        <v>33</v>
+      </c>
+      <c r="W12" t="s">
+        <v>35</v>
+      </c>
+      <c r="X12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:101" x14ac:dyDescent="0.4">
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>10</v>
+      </c>
+      <c r="S13">
+        <f>R13*2</f>
+        <v>20</v>
+      </c>
+      <c r="T13">
+        <f>10+S13</f>
+        <v>30</v>
+      </c>
+      <c r="V13">
+        <v>10</v>
+      </c>
+      <c r="W13">
+        <v>10</v>
+      </c>
+      <c r="X13">
+        <f>(V13+W13)*2</f>
+        <v>40</v>
+      </c>
+    </row>
     <row r="14" spans="1:101" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
         <v>10</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
+      </c>
+      <c r="L14" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <f>T13</f>
+        <v>30</v>
+      </c>
+      <c r="S14">
+        <f t="shared" ref="S14:S73" si="2">R14*2</f>
+        <v>60</v>
+      </c>
+      <c r="T14">
+        <f t="shared" ref="T14:T73" si="3">10+S14</f>
+        <v>70</v>
+      </c>
+      <c r="V14">
+        <f>X13</f>
+        <v>40</v>
+      </c>
+      <c r="W14">
+        <v>10</v>
+      </c>
+      <c r="X14">
+        <f>(V14+W14)*2</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:101" x14ac:dyDescent="0.4">
+      <c r="L15" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q15">
+        <v>2</v>
+      </c>
+      <c r="R15">
+        <f t="shared" ref="R15:R30" si="4">T14</f>
+        <v>70</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="2"/>
+        <v>140</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="3"/>
+        <v>150</v>
+      </c>
+      <c r="V15">
+        <f t="shared" ref="V15:V30" si="5">X14</f>
+        <v>100</v>
+      </c>
+      <c r="W15">
+        <v>10</v>
+      </c>
+      <c r="X15">
+        <f t="shared" ref="X15:X30" si="6">(V15+W15)*2</f>
+        <v>220</v>
       </c>
     </row>
     <row r="16" spans="1:101" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="Q16">
+        <v>3</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="4"/>
+        <v>150</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="3"/>
+        <v>310</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="5"/>
+        <v>220</v>
+      </c>
+      <c r="W16">
+        <v>10</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="6"/>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.4">
       <c r="E17" t="s">
         <v>15</v>
       </c>
       <c r="F17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="Q17">
+        <v>4</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="4"/>
+        <v>310</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="2"/>
+        <v>620</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="3"/>
+        <v>630</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="5"/>
+        <v>460</v>
+      </c>
+      <c r="W17">
+        <v>10</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="6"/>
+        <v>940</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>14</v>
       </c>
       <c r="D18" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L18" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18">
+        <v>5</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="4"/>
+        <v>630</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="2"/>
+        <v>1260</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="3"/>
+        <v>1270</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="5"/>
+        <v>940</v>
+      </c>
+      <c r="W18">
+        <v>10</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="6"/>
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.4">
       <c r="B19">
         <v>0</v>
       </c>
@@ -1587,8 +1895,37 @@
       <c r="J19">
         <v>10000</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L19" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q19">
+        <v>6</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="4"/>
+        <v>1270</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="2"/>
+        <v>2540</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="3"/>
+        <v>2550</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="5"/>
+        <v>1900</v>
+      </c>
+      <c r="W19">
+        <v>10</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="6"/>
+        <v>3820</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>0.9</v>
       </c>
@@ -1600,35 +1937,64 @@
         <v>0.9</v>
       </c>
       <c r="D20">
-        <f t="shared" ref="D20:J24" si="2">POWER($A20,D$19)</f>
+        <f t="shared" ref="D20:J24" si="7">POWER($A20,D$19)</f>
         <v>0.34867844010000015</v>
       </c>
       <c r="E20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>5.1537752073201248E-3</v>
       </c>
       <c r="F20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2.6561398887587605E-5</v>
       </c>
       <c r="G20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>7.0550791086554005E-10</v>
       </c>
       <c r="H20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.3220708194808385E-23</v>
       </c>
       <c r="I20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.7478712517227353E-46</v>
       </c>
       <c r="J20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L20" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q20">
+        <v>7</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="4"/>
+        <v>2550</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="2"/>
+        <v>5100</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="3"/>
+        <v>5110</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="5"/>
+        <v>3820</v>
+      </c>
+      <c r="W20">
+        <v>10</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="6"/>
+        <v>7660</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>0.99</v>
       </c>
@@ -1640,35 +2006,61 @@
         <v>0.99</v>
       </c>
       <c r="D21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.9043820750088043</v>
       </c>
       <c r="E21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.60500606713753613</v>
       </c>
       <c r="F21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.36603234127322892</v>
       </c>
       <c r="G21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.13397967485796147</v>
       </c>
       <c r="H21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>6.5704830424145773E-3</v>
       </c>
       <c r="I21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>4.317124741065751E-5</v>
       </c>
       <c r="J21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2.2487748498160938E-44</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="Q21">
+        <v>8</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="4"/>
+        <v>5110</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="2"/>
+        <v>10220</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="3"/>
+        <v>10230</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="5"/>
+        <v>7660</v>
+      </c>
+      <c r="W21">
+        <v>10</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="6"/>
+        <v>15340</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>0.999</v>
       </c>
@@ -1680,35 +2072,67 @@
         <v>0.999</v>
       </c>
       <c r="D22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.99004488020974835</v>
       </c>
       <c r="E22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.95120562819703169</v>
       </c>
       <c r="F22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.9047921471137097</v>
       </c>
       <c r="G22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.81864882947863693</v>
       </c>
       <c r="H22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.60637894486118737</v>
       </c>
       <c r="I22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.36769542477096695</v>
       </c>
       <c r="J22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>4.517334597705226E-5</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L22" t="s">
+        <v>22</v>
+      </c>
+      <c r="M22">
+        <v>10</v>
+      </c>
+      <c r="Q22">
+        <v>9</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="4"/>
+        <v>10230</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="2"/>
+        <v>20460</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="3"/>
+        <v>20470</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="5"/>
+        <v>15340</v>
+      </c>
+      <c r="W22">
+        <v>10</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="6"/>
+        <v>30700</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>0.99990000000000001</v>
       </c>
@@ -1724,31 +2148,66 @@
         <v>0.99900044988002124</v>
       </c>
       <c r="E23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.99501223042301012</v>
       </c>
       <c r="F23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.99004933869137335</v>
       </c>
       <c r="G23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.98019769304322568</v>
       </c>
       <c r="H23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.95122704627158772</v>
       </c>
       <c r="I23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.90483289355856944</v>
       </c>
       <c r="J23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.36786104643302414</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L23" t="s">
+        <v>23</v>
+      </c>
+      <c r="M23" t="s">
+        <v>25</v>
+      </c>
+      <c r="N23">
+        <v>1.5</v>
+      </c>
+      <c r="Q23">
+        <v>10</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="4"/>
+        <v>20470</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="2"/>
+        <v>40940</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="3"/>
+        <v>40950</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="5"/>
+        <v>30700</v>
+      </c>
+      <c r="W23">
+        <v>10</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="6"/>
+        <v>61420</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>0.95</v>
       </c>
@@ -1764,31 +2223,63 @@
         <v>0.5987369392383789</v>
       </c>
       <c r="E24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>7.6944975276713304E-2</v>
       </c>
       <c r="F24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>5.9205292203340209E-3</v>
       </c>
       <c r="G24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>3.505266624882897E-5</v>
       </c>
       <c r="H24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>7.2744915614391931E-12</v>
       </c>
       <c r="I24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>5.2918227477450033E-23</v>
       </c>
       <c r="J24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.7220782772887164E-223</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L24" t="s">
+        <v>24</v>
+      </c>
+      <c r="M24">
+        <v>10</v>
+      </c>
+      <c r="Q24">
+        <v>11</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="4"/>
+        <v>40950</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="2"/>
+        <v>81900</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="3"/>
+        <v>81910</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="5"/>
+        <v>61420</v>
+      </c>
+      <c r="W24">
+        <v>10</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="6"/>
+        <v>122860</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>1</v>
       </c>
@@ -1797,39 +2288,65 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <f t="shared" ref="C25:I25" si="3">C19*(C19+1)/2</f>
+        <f t="shared" ref="C25:I25" si="8">C19*(C19+1)/2</f>
         <v>1</v>
       </c>
       <c r="D25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>55</v>
       </c>
       <c r="E25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1275</v>
       </c>
       <c r="F25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>5050</v>
       </c>
       <c r="G25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>20100</v>
       </c>
       <c r="H25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>125250</v>
       </c>
       <c r="I25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>500500</v>
       </c>
       <c r="J25">
-        <f t="shared" ref="J25" si="4">J19*(J19+1)/2</f>
+        <f t="shared" ref="J25" si="9">J19*(J19+1)/2</f>
         <v>50005000</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="Q25">
+        <v>12</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="4"/>
+        <v>81910</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="2"/>
+        <v>163820</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="3"/>
+        <v>163830</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="5"/>
+        <v>122860</v>
+      </c>
+      <c r="W25">
+        <v>10</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="6"/>
+        <v>245740</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>2</v>
       </c>
@@ -1842,35 +2359,64 @@
         <v>5.0250000000000004</v>
       </c>
       <c r="D26">
-        <f t="shared" ref="D26:I26" si="5">D19/4*(10+D19*0.05)*$A26</f>
+        <f t="shared" ref="D26:I26" si="10">D19/4*(10+D19*0.05)*$A26</f>
         <v>52.5</v>
       </c>
       <c r="E26">
+        <f t="shared" si="10"/>
+        <v>312.5</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="10"/>
+        <v>750</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="10"/>
+        <v>2000</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="10"/>
+        <v>8750</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="10"/>
+        <v>30000</v>
+      </c>
+      <c r="J26">
+        <f t="shared" ref="J26" si="11">J19/4*(10+J19*0.05)*$A26</f>
+        <v>2550000</v>
+      </c>
+      <c r="L26" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q26">
+        <v>13</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="4"/>
+        <v>163830</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="2"/>
+        <v>327660</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="3"/>
+        <v>327670</v>
+      </c>
+      <c r="V26">
         <f t="shared" si="5"/>
-        <v>312.5</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="5"/>
-        <v>750</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="5"/>
-        <v>2000</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="5"/>
-        <v>8750</v>
-      </c>
-      <c r="I26">
-        <f t="shared" si="5"/>
-        <v>30000</v>
-      </c>
-      <c r="J26">
-        <f t="shared" ref="J26" si="6">J19/4*(10+J19*0.05)*$A26</f>
-        <v>2550000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+        <v>245740</v>
+      </c>
+      <c r="W26">
+        <v>10</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="6"/>
+        <v>491500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>2.5</v>
       </c>
@@ -1879,39 +2425,74 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <f t="shared" ref="C27:J28" si="7">C$19/4*(10+C$19*0.05)*$A27</f>
+        <f t="shared" ref="C27:J28" si="12">C$19/4*(10+C$19*0.05)*$A27</f>
         <v>6.28125</v>
       </c>
       <c r="D27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>65.625</v>
       </c>
       <c r="E27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>390.625</v>
       </c>
       <c r="F27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>937.5</v>
       </c>
       <c r="G27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2500</v>
       </c>
       <c r="H27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>10937.5</v>
       </c>
       <c r="I27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>37500</v>
       </c>
       <c r="J27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>3187500</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L27" t="s">
+        <v>27</v>
+      </c>
+      <c r="N27" t="s">
+        <v>28</v>
+      </c>
+      <c r="O27">
+        <v>8</v>
+      </c>
+      <c r="Q27">
+        <v>14</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="4"/>
+        <v>327670</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="2"/>
+        <v>655340</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="3"/>
+        <v>655350</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="5"/>
+        <v>491500</v>
+      </c>
+      <c r="W27">
+        <v>10</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="6"/>
+        <v>983020</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>3</v>
       </c>
@@ -1920,39 +2501,68 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>7.5375000000000005</v>
       </c>
       <c r="D28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>78.75</v>
       </c>
       <c r="E28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>468.75</v>
       </c>
       <c r="F28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1125</v>
       </c>
       <c r="G28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>3000</v>
       </c>
       <c r="H28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>13125</v>
       </c>
       <c r="I28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>45000</v>
       </c>
       <c r="J28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>3825000</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="O28">
+        <v>60</v>
+      </c>
+      <c r="Q28">
+        <v>15</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="4"/>
+        <v>655350</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="2"/>
+        <v>1310700</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="3"/>
+        <v>1310710</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="5"/>
+        <v>983020</v>
+      </c>
+      <c r="W28">
+        <v>10</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="6"/>
+        <v>1966060</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>2</v>
       </c>
@@ -1961,39 +2571,68 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <f t="shared" ref="C29:J31" si="8">C$19/4*(10+C$19*0.1)*$A29</f>
+        <f t="shared" ref="C29:J31" si="13">C$19/4*(10+C$19*0.1)*$A29</f>
         <v>5.05</v>
       </c>
       <c r="D29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>55</v>
       </c>
       <c r="E29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>375</v>
       </c>
       <c r="F29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1000</v>
       </c>
       <c r="G29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>3000</v>
       </c>
       <c r="H29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>15000</v>
       </c>
       <c r="I29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>55000</v>
       </c>
       <c r="J29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>5050000</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="O29" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q29">
+        <v>16</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="4"/>
+        <v>1310710</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="2"/>
+        <v>2621420</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="3"/>
+        <v>2621430</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="5"/>
+        <v>1966060</v>
+      </c>
+      <c r="W29">
+        <v>10</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="6"/>
+        <v>3932140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>2.5</v>
       </c>
@@ -2002,39 +2641,72 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>6.3125</v>
       </c>
       <c r="D30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>68.75</v>
       </c>
       <c r="E30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>468.75</v>
       </c>
       <c r="F30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1250</v>
       </c>
       <c r="G30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>3750</v>
       </c>
       <c r="H30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>18750</v>
       </c>
       <c r="I30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>68750</v>
       </c>
       <c r="J30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>6312500</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="M30" t="s">
+        <v>30</v>
+      </c>
+      <c r="O30">
+        <f>1024^6</f>
+        <v>1.152921504606847E+18</v>
+      </c>
+      <c r="Q30">
+        <v>17</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="4"/>
+        <v>2621430</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="2"/>
+        <v>5242860</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="3"/>
+        <v>5242870</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="5"/>
+        <v>3932140</v>
+      </c>
+      <c r="W30">
+        <v>10</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="6"/>
+        <v>7864300</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>3</v>
       </c>
@@ -2043,39 +2715,68 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>7.5749999999999993</v>
       </c>
       <c r="D31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>82.5</v>
       </c>
       <c r="E31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>562.5</v>
       </c>
       <c r="F31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1500</v>
       </c>
       <c r="G31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>4500</v>
       </c>
       <c r="H31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>22500</v>
       </c>
       <c r="I31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>82500</v>
       </c>
       <c r="J31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>7575000</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="M31" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q31">
+        <v>18</v>
+      </c>
+      <c r="R31">
+        <f t="shared" ref="R31:R73" si="14">T30</f>
+        <v>5242870</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="2"/>
+        <v>10485740</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="3"/>
+        <v>10485750</v>
+      </c>
+      <c r="V31">
+        <f t="shared" ref="V31:V73" si="15">X30</f>
+        <v>7864300</v>
+      </c>
+      <c r="W31">
+        <v>10</v>
+      </c>
+      <c r="X31">
+        <f t="shared" ref="X31:X73" si="16">(V31+W31)*2</f>
+        <v>15728620</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>2</v>
       </c>
@@ -2084,39 +2785,65 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <f t="shared" ref="C32:J34" si="9">C$19/4*(10+C$19*0.25)*$A32</f>
+        <f t="shared" ref="C32:J34" si="17">C$19/4*(10+C$19*0.25)*$A32</f>
         <v>5.125</v>
       </c>
       <c r="D32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>62.5</v>
       </c>
       <c r="E32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>562.5</v>
       </c>
       <c r="F32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>1750</v>
       </c>
       <c r="G32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>6000</v>
       </c>
       <c r="H32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>33750</v>
       </c>
       <c r="I32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>130000</v>
       </c>
       <c r="J32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>12550000</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="Q32">
+        <v>19</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="14"/>
+        <v>10485750</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="2"/>
+        <v>20971500</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="3"/>
+        <v>20971510</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="15"/>
+        <v>15728620</v>
+      </c>
+      <c r="W32">
+        <v>10</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="16"/>
+        <v>31457260</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>2.5</v>
       </c>
@@ -2125,39 +2852,65 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>6.40625</v>
       </c>
       <c r="D33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>78.125</v>
       </c>
       <c r="E33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>703.125</v>
       </c>
       <c r="F33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>2187.5</v>
       </c>
       <c r="G33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>7500</v>
       </c>
       <c r="H33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>42187.5</v>
       </c>
       <c r="I33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>162500</v>
       </c>
       <c r="J33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>15687500</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="Q33">
+        <v>20</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="14"/>
+        <v>20971510</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="2"/>
+        <v>41943020</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="3"/>
+        <v>41943030</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="15"/>
+        <v>31457260</v>
+      </c>
+      <c r="W33">
+        <v>10</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="16"/>
+        <v>62914540</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>3</v>
       </c>
@@ -2166,39 +2919,65 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>7.6875</v>
       </c>
       <c r="D34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>93.75</v>
       </c>
       <c r="E34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>843.75</v>
       </c>
       <c r="F34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>2625</v>
       </c>
       <c r="G34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>9000</v>
       </c>
       <c r="H34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>50625</v>
       </c>
       <c r="I34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>195000</v>
       </c>
       <c r="J34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>18825000</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="Q34">
+        <v>21</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="14"/>
+        <v>41943030</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="2"/>
+        <v>83886060</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="3"/>
+        <v>83886070</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="15"/>
+        <v>62914540</v>
+      </c>
+      <c r="W34">
+        <v>10</v>
+      </c>
+      <c r="X34">
+        <f t="shared" si="16"/>
+        <v>125829100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>2</v>
       </c>
@@ -2207,39 +2986,65 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <f t="shared" ref="C35:J38" si="10">C$19/4*(10+C$19*0.5)*$A35</f>
+        <f t="shared" ref="C35:J38" si="18">C$19/4*(10+C$19*0.5)*$A35</f>
         <v>5.25</v>
       </c>
       <c r="D35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>75</v>
       </c>
       <c r="E35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>875</v>
       </c>
       <c r="F35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>3000</v>
       </c>
       <c r="G35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>11000</v>
       </c>
       <c r="H35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>65000</v>
       </c>
       <c r="I35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>255000</v>
       </c>
       <c r="J35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>25050000</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="Q35">
+        <v>22</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="14"/>
+        <v>83886070</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="2"/>
+        <v>167772140</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="3"/>
+        <v>167772150</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="15"/>
+        <v>125829100</v>
+      </c>
+      <c r="W35">
+        <v>10</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="16"/>
+        <v>251658220</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>2.5</v>
       </c>
@@ -2248,39 +3053,65 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>6.5625</v>
       </c>
       <c r="D36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>93.75</v>
       </c>
       <c r="E36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>1093.75</v>
       </c>
       <c r="F36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>3750</v>
       </c>
       <c r="G36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>13750</v>
       </c>
       <c r="H36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>81250</v>
       </c>
       <c r="I36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>318750</v>
       </c>
       <c r="J36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>31312500</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="Q36">
+        <v>23</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="14"/>
+        <v>167772150</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="2"/>
+        <v>335544300</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="3"/>
+        <v>335544310</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="15"/>
+        <v>251658220</v>
+      </c>
+      <c r="W36">
+        <v>10</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="16"/>
+        <v>503316460</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>3</v>
       </c>
@@ -2289,39 +3120,65 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>7.875</v>
       </c>
       <c r="D37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>112.5</v>
       </c>
       <c r="E37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>1312.5</v>
       </c>
       <c r="F37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>4500</v>
       </c>
       <c r="G37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>16500</v>
       </c>
       <c r="H37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>97500</v>
       </c>
       <c r="I37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>382500</v>
       </c>
       <c r="J37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>37575000</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="Q37">
+        <v>24</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="14"/>
+        <v>335544310</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="2"/>
+        <v>671088620</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="3"/>
+        <v>671088630</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="15"/>
+        <v>503316460</v>
+      </c>
+      <c r="W37">
+        <v>10</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="16"/>
+        <v>1006632940</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>5</v>
       </c>
@@ -2330,36 +3187,1042 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>13.125</v>
       </c>
       <c r="D38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>187.5</v>
       </c>
       <c r="E38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>2187.5</v>
       </c>
       <c r="F38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>7500</v>
       </c>
       <c r="G38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>27500</v>
       </c>
       <c r="H38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>162500</v>
       </c>
       <c r="I38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>637500</v>
       </c>
       <c r="J38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>62625000</v>
+      </c>
+      <c r="Q38">
+        <v>25</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="14"/>
+        <v>671088630</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="2"/>
+        <v>1342177260</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="3"/>
+        <v>1342177270</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="15"/>
+        <v>1006632940</v>
+      </c>
+      <c r="W38">
+        <v>10</v>
+      </c>
+      <c r="X38">
+        <f t="shared" si="16"/>
+        <v>2013265900</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="Q39">
+        <v>26</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="14"/>
+        <v>1342177270</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="2"/>
+        <v>2684354540</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="3"/>
+        <v>2684354550</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="15"/>
+        <v>2013265900</v>
+      </c>
+      <c r="W39">
+        <v>10</v>
+      </c>
+      <c r="X39">
+        <f t="shared" si="16"/>
+        <v>4026531820</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="Q40">
+        <v>27</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="14"/>
+        <v>2684354550</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="2"/>
+        <v>5368709100</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="3"/>
+        <v>5368709110</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="15"/>
+        <v>4026531820</v>
+      </c>
+      <c r="W40">
+        <v>10</v>
+      </c>
+      <c r="X40">
+        <f t="shared" si="16"/>
+        <v>8053063660</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="Q41">
+        <v>28</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="14"/>
+        <v>5368709110</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="2"/>
+        <v>10737418220</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="3"/>
+        <v>10737418230</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="15"/>
+        <v>8053063660</v>
+      </c>
+      <c r="W41">
+        <v>10</v>
+      </c>
+      <c r="X41">
+        <f t="shared" si="16"/>
+        <v>16106127340</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="Q42">
+        <v>29</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="14"/>
+        <v>10737418230</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="2"/>
+        <v>21474836460</v>
+      </c>
+      <c r="T42">
+        <f t="shared" si="3"/>
+        <v>21474836470</v>
+      </c>
+      <c r="V42">
+        <f t="shared" si="15"/>
+        <v>16106127340</v>
+      </c>
+      <c r="W42">
+        <v>10</v>
+      </c>
+      <c r="X42">
+        <f t="shared" si="16"/>
+        <v>32212254700</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="Q43">
+        <v>30</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="14"/>
+        <v>21474836470</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="2"/>
+        <v>42949672940</v>
+      </c>
+      <c r="T43">
+        <f t="shared" si="3"/>
+        <v>42949672950</v>
+      </c>
+      <c r="V43">
+        <f t="shared" si="15"/>
+        <v>32212254700</v>
+      </c>
+      <c r="W43">
+        <v>10</v>
+      </c>
+      <c r="X43">
+        <f t="shared" si="16"/>
+        <v>64424509420</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="Q44">
+        <v>31</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="14"/>
+        <v>42949672950</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="2"/>
+        <v>85899345900</v>
+      </c>
+      <c r="T44">
+        <f t="shared" si="3"/>
+        <v>85899345910</v>
+      </c>
+      <c r="V44">
+        <f t="shared" si="15"/>
+        <v>64424509420</v>
+      </c>
+      <c r="W44">
+        <v>10</v>
+      </c>
+      <c r="X44">
+        <f t="shared" si="16"/>
+        <v>128849018860</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="Q45">
+        <v>32</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="14"/>
+        <v>85899345910</v>
+      </c>
+      <c r="S45">
+        <f t="shared" si="2"/>
+        <v>171798691820</v>
+      </c>
+      <c r="T45">
+        <f t="shared" si="3"/>
+        <v>171798691830</v>
+      </c>
+      <c r="V45">
+        <f t="shared" si="15"/>
+        <v>128849018860</v>
+      </c>
+      <c r="W45">
+        <v>10</v>
+      </c>
+      <c r="X45">
+        <f t="shared" si="16"/>
+        <v>257698037740</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="Q46">
+        <v>33</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="14"/>
+        <v>171798691830</v>
+      </c>
+      <c r="S46">
+        <f t="shared" si="2"/>
+        <v>343597383660</v>
+      </c>
+      <c r="T46">
+        <f t="shared" si="3"/>
+        <v>343597383670</v>
+      </c>
+      <c r="V46">
+        <f t="shared" si="15"/>
+        <v>257698037740</v>
+      </c>
+      <c r="W46">
+        <v>10</v>
+      </c>
+      <c r="X46">
+        <f t="shared" si="16"/>
+        <v>515396075500</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="Q47">
+        <v>34</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="14"/>
+        <v>343597383670</v>
+      </c>
+      <c r="S47">
+        <f t="shared" si="2"/>
+        <v>687194767340</v>
+      </c>
+      <c r="T47">
+        <f t="shared" si="3"/>
+        <v>687194767350</v>
+      </c>
+      <c r="V47">
+        <f t="shared" si="15"/>
+        <v>515396075500</v>
+      </c>
+      <c r="W47">
+        <v>10</v>
+      </c>
+      <c r="X47">
+        <f t="shared" si="16"/>
+        <v>1030792151020</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="Q48">
+        <v>35</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="14"/>
+        <v>687194767350</v>
+      </c>
+      <c r="S48">
+        <f t="shared" si="2"/>
+        <v>1374389534700</v>
+      </c>
+      <c r="T48">
+        <f t="shared" si="3"/>
+        <v>1374389534710</v>
+      </c>
+      <c r="V48">
+        <f t="shared" si="15"/>
+        <v>1030792151020</v>
+      </c>
+      <c r="W48">
+        <v>10</v>
+      </c>
+      <c r="X48">
+        <f t="shared" si="16"/>
+        <v>2061584302060</v>
+      </c>
+    </row>
+    <row r="49" spans="17:24" x14ac:dyDescent="0.4">
+      <c r="Q49">
+        <v>36</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="14"/>
+        <v>1374389534710</v>
+      </c>
+      <c r="S49">
+        <f t="shared" si="2"/>
+        <v>2748779069420</v>
+      </c>
+      <c r="T49">
+        <f t="shared" si="3"/>
+        <v>2748779069430</v>
+      </c>
+      <c r="V49">
+        <f t="shared" si="15"/>
+        <v>2061584302060</v>
+      </c>
+      <c r="W49">
+        <v>10</v>
+      </c>
+      <c r="X49">
+        <f t="shared" si="16"/>
+        <v>4123168604140</v>
+      </c>
+    </row>
+    <row r="50" spans="17:24" x14ac:dyDescent="0.4">
+      <c r="Q50">
+        <v>37</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="14"/>
+        <v>2748779069430</v>
+      </c>
+      <c r="S50">
+        <f t="shared" si="2"/>
+        <v>5497558138860</v>
+      </c>
+      <c r="T50">
+        <f t="shared" si="3"/>
+        <v>5497558138870</v>
+      </c>
+      <c r="V50">
+        <f t="shared" si="15"/>
+        <v>4123168604140</v>
+      </c>
+      <c r="W50">
+        <v>10</v>
+      </c>
+      <c r="X50">
+        <f t="shared" si="16"/>
+        <v>8246337208300</v>
+      </c>
+    </row>
+    <row r="51" spans="17:24" x14ac:dyDescent="0.4">
+      <c r="Q51">
+        <v>38</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="14"/>
+        <v>5497558138870</v>
+      </c>
+      <c r="S51">
+        <f t="shared" si="2"/>
+        <v>10995116277740</v>
+      </c>
+      <c r="T51">
+        <f t="shared" si="3"/>
+        <v>10995116277750</v>
+      </c>
+      <c r="V51">
+        <f t="shared" si="15"/>
+        <v>8246337208300</v>
+      </c>
+      <c r="W51">
+        <v>10</v>
+      </c>
+      <c r="X51">
+        <f t="shared" si="16"/>
+        <v>16492674416620</v>
+      </c>
+    </row>
+    <row r="52" spans="17:24" x14ac:dyDescent="0.4">
+      <c r="Q52">
+        <v>39</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="14"/>
+        <v>10995116277750</v>
+      </c>
+      <c r="S52">
+        <f t="shared" si="2"/>
+        <v>21990232555500</v>
+      </c>
+      <c r="T52">
+        <f t="shared" si="3"/>
+        <v>21990232555510</v>
+      </c>
+      <c r="V52">
+        <f t="shared" si="15"/>
+        <v>16492674416620</v>
+      </c>
+      <c r="W52">
+        <v>10</v>
+      </c>
+      <c r="X52">
+        <f t="shared" si="16"/>
+        <v>32985348833260</v>
+      </c>
+    </row>
+    <row r="53" spans="17:24" x14ac:dyDescent="0.4">
+      <c r="Q53">
+        <v>40</v>
+      </c>
+      <c r="R53">
+        <f t="shared" si="14"/>
+        <v>21990232555510</v>
+      </c>
+      <c r="S53">
+        <f t="shared" si="2"/>
+        <v>43980465111020</v>
+      </c>
+      <c r="T53">
+        <f t="shared" si="3"/>
+        <v>43980465111030</v>
+      </c>
+      <c r="V53">
+        <f t="shared" si="15"/>
+        <v>32985348833260</v>
+      </c>
+      <c r="W53">
+        <v>10</v>
+      </c>
+      <c r="X53">
+        <f t="shared" si="16"/>
+        <v>65970697666540</v>
+      </c>
+    </row>
+    <row r="54" spans="17:24" x14ac:dyDescent="0.4">
+      <c r="Q54">
+        <v>41</v>
+      </c>
+      <c r="R54">
+        <f t="shared" si="14"/>
+        <v>43980465111030</v>
+      </c>
+      <c r="S54">
+        <f t="shared" si="2"/>
+        <v>87960930222060</v>
+      </c>
+      <c r="T54">
+        <f t="shared" si="3"/>
+        <v>87960930222070</v>
+      </c>
+      <c r="V54">
+        <f t="shared" si="15"/>
+        <v>65970697666540</v>
+      </c>
+      <c r="W54">
+        <v>10</v>
+      </c>
+      <c r="X54">
+        <f t="shared" si="16"/>
+        <v>131941395333100</v>
+      </c>
+    </row>
+    <row r="55" spans="17:24" x14ac:dyDescent="0.4">
+      <c r="Q55">
+        <v>42</v>
+      </c>
+      <c r="R55">
+        <f t="shared" si="14"/>
+        <v>87960930222070</v>
+      </c>
+      <c r="S55">
+        <f t="shared" si="2"/>
+        <v>175921860444140</v>
+      </c>
+      <c r="T55">
+        <f t="shared" si="3"/>
+        <v>175921860444150</v>
+      </c>
+      <c r="V55">
+        <f t="shared" si="15"/>
+        <v>131941395333100</v>
+      </c>
+      <c r="W55">
+        <v>10</v>
+      </c>
+      <c r="X55">
+        <f t="shared" si="16"/>
+        <v>263882790666220</v>
+      </c>
+    </row>
+    <row r="56" spans="17:24" x14ac:dyDescent="0.4">
+      <c r="Q56">
+        <v>43</v>
+      </c>
+      <c r="R56">
+        <f t="shared" si="14"/>
+        <v>175921860444150</v>
+      </c>
+      <c r="S56">
+        <f t="shared" si="2"/>
+        <v>351843720888300</v>
+      </c>
+      <c r="T56">
+        <f t="shared" si="3"/>
+        <v>351843720888310</v>
+      </c>
+      <c r="V56">
+        <f t="shared" si="15"/>
+        <v>263882790666220</v>
+      </c>
+      <c r="W56">
+        <v>10</v>
+      </c>
+      <c r="X56">
+        <f t="shared" si="16"/>
+        <v>527765581332460</v>
+      </c>
+    </row>
+    <row r="57" spans="17:24" x14ac:dyDescent="0.4">
+      <c r="Q57">
+        <v>44</v>
+      </c>
+      <c r="R57">
+        <f t="shared" si="14"/>
+        <v>351843720888310</v>
+      </c>
+      <c r="S57">
+        <f t="shared" si="2"/>
+        <v>703687441776620</v>
+      </c>
+      <c r="T57">
+        <f t="shared" si="3"/>
+        <v>703687441776630</v>
+      </c>
+      <c r="V57">
+        <f t="shared" si="15"/>
+        <v>527765581332460</v>
+      </c>
+      <c r="W57">
+        <v>10</v>
+      </c>
+      <c r="X57">
+        <f t="shared" si="16"/>
+        <v>1055531162664940</v>
+      </c>
+    </row>
+    <row r="58" spans="17:24" x14ac:dyDescent="0.4">
+      <c r="Q58">
+        <v>45</v>
+      </c>
+      <c r="R58">
+        <f t="shared" si="14"/>
+        <v>703687441776630</v>
+      </c>
+      <c r="S58">
+        <f t="shared" si="2"/>
+        <v>1407374883553260</v>
+      </c>
+      <c r="T58">
+        <f t="shared" si="3"/>
+        <v>1407374883553270</v>
+      </c>
+      <c r="V58">
+        <f t="shared" si="15"/>
+        <v>1055531162664940</v>
+      </c>
+      <c r="W58">
+        <v>10</v>
+      </c>
+      <c r="X58">
+        <f t="shared" si="16"/>
+        <v>2111062325329900</v>
+      </c>
+    </row>
+    <row r="59" spans="17:24" x14ac:dyDescent="0.4">
+      <c r="Q59">
+        <v>46</v>
+      </c>
+      <c r="R59">
+        <f t="shared" si="14"/>
+        <v>1407374883553270</v>
+      </c>
+      <c r="S59">
+        <f t="shared" si="2"/>
+        <v>2814749767106540</v>
+      </c>
+      <c r="T59">
+        <f t="shared" si="3"/>
+        <v>2814749767106550</v>
+      </c>
+      <c r="V59">
+        <f t="shared" si="15"/>
+        <v>2111062325329900</v>
+      </c>
+      <c r="W59">
+        <v>10</v>
+      </c>
+      <c r="X59">
+        <f t="shared" si="16"/>
+        <v>4222124650659820</v>
+      </c>
+    </row>
+    <row r="60" spans="17:24" x14ac:dyDescent="0.4">
+      <c r="Q60">
+        <v>47</v>
+      </c>
+      <c r="R60">
+        <f t="shared" si="14"/>
+        <v>2814749767106550</v>
+      </c>
+      <c r="S60">
+        <f t="shared" si="2"/>
+        <v>5629499534213100</v>
+      </c>
+      <c r="T60">
+        <f t="shared" si="3"/>
+        <v>5629499534213110</v>
+      </c>
+      <c r="V60">
+        <f t="shared" si="15"/>
+        <v>4222124650659820</v>
+      </c>
+      <c r="W60">
+        <v>10</v>
+      </c>
+      <c r="X60">
+        <f t="shared" si="16"/>
+        <v>8444249301319660</v>
+      </c>
+    </row>
+    <row r="61" spans="17:24" x14ac:dyDescent="0.4">
+      <c r="Q61">
+        <v>48</v>
+      </c>
+      <c r="R61">
+        <f t="shared" si="14"/>
+        <v>5629499534213110</v>
+      </c>
+      <c r="S61">
+        <f t="shared" si="2"/>
+        <v>1.125899906842622E+16</v>
+      </c>
+      <c r="T61">
+        <f t="shared" si="3"/>
+        <v>1.125899906842623E+16</v>
+      </c>
+      <c r="V61">
+        <f t="shared" si="15"/>
+        <v>8444249301319660</v>
+      </c>
+      <c r="W61">
+        <v>10</v>
+      </c>
+      <c r="X61">
+        <f t="shared" si="16"/>
+        <v>1.688849860263934E+16</v>
+      </c>
+    </row>
+    <row r="62" spans="17:24" x14ac:dyDescent="0.4">
+      <c r="Q62">
+        <v>49</v>
+      </c>
+      <c r="R62">
+        <f t="shared" si="14"/>
+        <v>1.125899906842623E+16</v>
+      </c>
+      <c r="S62">
+        <f t="shared" si="2"/>
+        <v>2.251799813685246E+16</v>
+      </c>
+      <c r="T62">
+        <f t="shared" si="3"/>
+        <v>2.2517998136852472E+16</v>
+      </c>
+      <c r="V62">
+        <f t="shared" si="15"/>
+        <v>1.688849860263934E+16</v>
+      </c>
+      <c r="W62">
+        <v>10</v>
+      </c>
+      <c r="X62">
+        <f t="shared" si="16"/>
+        <v>3.37769972052787E+16</v>
+      </c>
+    </row>
+    <row r="63" spans="17:24" x14ac:dyDescent="0.4">
+      <c r="Q63">
+        <v>50</v>
+      </c>
+      <c r="R63">
+        <f t="shared" si="14"/>
+        <v>2.2517998136852472E+16</v>
+      </c>
+      <c r="S63">
+        <f t="shared" si="2"/>
+        <v>4.5035996273704944E+16</v>
+      </c>
+      <c r="T63">
+        <f t="shared" si="3"/>
+        <v>4.5035996273704952E+16</v>
+      </c>
+      <c r="V63">
+        <f t="shared" si="15"/>
+        <v>3.37769972052787E+16</v>
+      </c>
+      <c r="W63">
+        <v>10</v>
+      </c>
+      <c r="X63">
+        <f t="shared" si="16"/>
+        <v>6.7553994410557424E+16</v>
+      </c>
+    </row>
+    <row r="64" spans="17:24" x14ac:dyDescent="0.4">
+      <c r="Q64">
+        <v>51</v>
+      </c>
+      <c r="R64">
+        <f t="shared" si="14"/>
+        <v>4.5035996273704952E+16</v>
+      </c>
+      <c r="S64">
+        <f t="shared" si="2"/>
+        <v>9.0071992547409904E+16</v>
+      </c>
+      <c r="T64">
+        <f t="shared" si="3"/>
+        <v>9.007199254740992E+16</v>
+      </c>
+      <c r="V64">
+        <f t="shared" si="15"/>
+        <v>6.7553994410557424E+16</v>
+      </c>
+      <c r="W64">
+        <v>10</v>
+      </c>
+      <c r="X64">
+        <f t="shared" si="16"/>
+        <v>1.3510798882111486E+17</v>
+      </c>
+    </row>
+    <row r="65" spans="17:24" x14ac:dyDescent="0.4">
+      <c r="Q65">
+        <v>52</v>
+      </c>
+      <c r="R65">
+        <f t="shared" si="14"/>
+        <v>9.007199254740992E+16</v>
+      </c>
+      <c r="S65">
+        <f t="shared" si="2"/>
+        <v>1.8014398509481984E+17</v>
+      </c>
+      <c r="T65">
+        <f t="shared" si="3"/>
+        <v>1.8014398509481984E+17</v>
+      </c>
+      <c r="V65">
+        <f t="shared" si="15"/>
+        <v>1.3510798882111486E+17</v>
+      </c>
+      <c r="W65">
+        <v>10</v>
+      </c>
+      <c r="X65">
+        <f t="shared" si="16"/>
+        <v>2.7021597764222976E+17</v>
+      </c>
+    </row>
+    <row r="66" spans="17:24" x14ac:dyDescent="0.4">
+      <c r="Q66">
+        <v>53</v>
+      </c>
+      <c r="R66">
+        <f t="shared" si="14"/>
+        <v>1.8014398509481984E+17</v>
+      </c>
+      <c r="S66">
+        <f t="shared" si="2"/>
+        <v>3.6028797018963968E+17</v>
+      </c>
+      <c r="T66">
+        <f t="shared" si="3"/>
+        <v>3.6028797018963968E+17</v>
+      </c>
+      <c r="V66">
+        <f t="shared" si="15"/>
+        <v>2.7021597764222976E+17</v>
+      </c>
+      <c r="W66">
+        <v>10</v>
+      </c>
+      <c r="X66">
+        <f t="shared" si="16"/>
+        <v>5.4043195528445952E+17</v>
+      </c>
+    </row>
+    <row r="67" spans="17:24" x14ac:dyDescent="0.4">
+      <c r="Q67">
+        <v>54</v>
+      </c>
+      <c r="R67">
+        <f t="shared" si="14"/>
+        <v>3.6028797018963968E+17</v>
+      </c>
+      <c r="S67">
+        <f t="shared" si="2"/>
+        <v>7.2057594037927936E+17</v>
+      </c>
+      <c r="T67">
+        <f t="shared" si="3"/>
+        <v>7.2057594037927936E+17</v>
+      </c>
+      <c r="V67">
+        <f t="shared" si="15"/>
+        <v>5.4043195528445952E+17</v>
+      </c>
+      <c r="W67">
+        <v>10</v>
+      </c>
+      <c r="X67">
+        <f t="shared" si="16"/>
+        <v>1.080863910568919E+18</v>
+      </c>
+    </row>
+    <row r="68" spans="17:24" x14ac:dyDescent="0.4">
+      <c r="Q68">
+        <v>55</v>
+      </c>
+      <c r="R68">
+        <f t="shared" si="14"/>
+        <v>7.2057594037927936E+17</v>
+      </c>
+      <c r="S68">
+        <f t="shared" si="2"/>
+        <v>1.4411518807585587E+18</v>
+      </c>
+      <c r="T68">
+        <f t="shared" si="3"/>
+        <v>1.4411518807585587E+18</v>
+      </c>
+      <c r="V68">
+        <f t="shared" si="15"/>
+        <v>1.080863910568919E+18</v>
+      </c>
+      <c r="W68">
+        <v>10</v>
+      </c>
+      <c r="X68">
+        <f t="shared" si="16"/>
+        <v>2.1617278211378381E+18</v>
+      </c>
+    </row>
+    <row r="69" spans="17:24" x14ac:dyDescent="0.4">
+      <c r="Q69">
+        <v>56</v>
+      </c>
+      <c r="R69">
+        <f t="shared" si="14"/>
+        <v>1.4411518807585587E+18</v>
+      </c>
+      <c r="S69">
+        <f t="shared" si="2"/>
+        <v>2.8823037615171174E+18</v>
+      </c>
+      <c r="T69">
+        <f t="shared" si="3"/>
+        <v>2.8823037615171174E+18</v>
+      </c>
+      <c r="V69">
+        <f t="shared" si="15"/>
+        <v>2.1617278211378381E+18</v>
+      </c>
+      <c r="W69">
+        <v>10</v>
+      </c>
+      <c r="X69">
+        <f t="shared" si="16"/>
+        <v>4.3234556422756762E+18</v>
+      </c>
+    </row>
+    <row r="70" spans="17:24" x14ac:dyDescent="0.4">
+      <c r="Q70">
+        <v>57</v>
+      </c>
+      <c r="R70">
+        <f t="shared" si="14"/>
+        <v>2.8823037615171174E+18</v>
+      </c>
+      <c r="S70">
+        <f t="shared" si="2"/>
+        <v>5.7646075230342349E+18</v>
+      </c>
+      <c r="T70">
+        <f t="shared" si="3"/>
+        <v>5.7646075230342349E+18</v>
+      </c>
+      <c r="V70">
+        <f t="shared" si="15"/>
+        <v>4.3234556422756762E+18</v>
+      </c>
+      <c r="W70">
+        <v>10</v>
+      </c>
+      <c r="X70">
+        <f t="shared" si="16"/>
+        <v>8.6469112845513523E+18</v>
+      </c>
+    </row>
+    <row r="71" spans="17:24" x14ac:dyDescent="0.4">
+      <c r="Q71">
+        <v>58</v>
+      </c>
+      <c r="R71">
+        <f t="shared" si="14"/>
+        <v>5.7646075230342349E+18</v>
+      </c>
+      <c r="S71">
+        <f t="shared" si="2"/>
+        <v>1.152921504606847E+19</v>
+      </c>
+      <c r="T71">
+        <f t="shared" si="3"/>
+        <v>1.152921504606847E+19</v>
+      </c>
+      <c r="V71">
+        <f t="shared" si="15"/>
+        <v>8.6469112845513523E+18</v>
+      </c>
+      <c r="W71">
+        <v>10</v>
+      </c>
+      <c r="X71">
+        <f t="shared" si="16"/>
+        <v>1.7293822569102705E+19</v>
+      </c>
+    </row>
+    <row r="72" spans="17:24" x14ac:dyDescent="0.4">
+      <c r="Q72">
+        <v>59</v>
+      </c>
+      <c r="R72">
+        <f t="shared" si="14"/>
+        <v>1.152921504606847E+19</v>
+      </c>
+      <c r="S72">
+        <f t="shared" si="2"/>
+        <v>2.305843009213694E+19</v>
+      </c>
+      <c r="T72">
+        <f t="shared" si="3"/>
+        <v>2.305843009213694E+19</v>
+      </c>
+      <c r="V72">
+        <f t="shared" si="15"/>
+        <v>1.7293822569102705E+19</v>
+      </c>
+      <c r="W72">
+        <v>10</v>
+      </c>
+      <c r="X72">
+        <f t="shared" si="16"/>
+        <v>3.4587645138205409E+19</v>
+      </c>
+    </row>
+    <row r="73" spans="17:24" x14ac:dyDescent="0.4">
+      <c r="Q73">
+        <v>60</v>
+      </c>
+      <c r="R73">
+        <f t="shared" si="14"/>
+        <v>2.305843009213694E+19</v>
+      </c>
+      <c r="S73">
+        <f t="shared" si="2"/>
+        <v>4.6116860184273879E+19</v>
+      </c>
+      <c r="T73">
+        <f t="shared" si="3"/>
+        <v>4.6116860184273879E+19</v>
+      </c>
+      <c r="V73">
+        <f t="shared" si="15"/>
+        <v>3.4587645138205409E+19</v>
+      </c>
+      <c r="W73">
+        <v>10</v>
+      </c>
+      <c r="X73">
+        <f t="shared" si="16"/>
+        <v>6.9175290276410819E+19</v>
       </c>
     </row>
   </sheetData>
